--- a/biology/Virologie/Lazare_Kaptué/Lazare_Kaptué.xlsx
+++ b/biology/Virologie/Lazare_Kaptué/Lazare_Kaptué.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lazare_Kaptu%C3%A9</t>
+          <t>Lazare_Kaptué</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lazare Kaptué, né en 1939 et mort le 12 avril 2021, est un professeur et directeur des établissements universitaires au Cameroun. Il a été actif comme virologue et a effectué des travaux de recherche sur le VIH au Cameroun.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lazare_Kaptu%C3%A9</t>
+          <t>Lazare_Kaptué</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance, éducation et débuts
-Lazare Kaptué est né en 1939 à Mbanga[1].
-Carrière
-Lazare Kaptué est ancien maire de Demdeng près de Bandjoun dans la région de l'ouest du Cameroun[2]. Il devient professeur agrégé  en immunologie et hématologie en 1973. De 1984 à 1994, il est directeur de la santé puis inspecteur général au ministère de la santé publique[3].
-Il contribue à la découverte d'une souche du VIH1[4]. Il est l'auteur de plusieurs ouvrages et articles scientifiques[2]. Il est expert auprès de l'organisation mondiale de la santé depuis 1987[5]. 
-En 1992, il a organisé la Conférence internationale sur le sida de Yaoundé et est devenu le président de l'antenne camerounaise de SidAlerte International. Il a été l'un des organisateurs de la lutte contre l'épidémie de sida au Cameroun, en lien avec les organisations internationales[6].
-Il est l'un des membres fondateurs de l'université des montagnes de Bangangté dans l'ouest du Cameroun[7],[8],[9]. 
-Il a été dirigeant sportif et promoteur d'équipe de football[2]. Il est propriétaire de clinique à Bastos Yaoundé au Cameroun[2].
-Il prend sa retraite le 31 décembre 2004[2].
-Il meurt le 12 avril 2021[3].
+          <t>Enfance, éducation et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lazare Kaptué est né en 1939 à Mbanga.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lazare_Kaptué</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lazare_Kaptu%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lazare Kaptué est ancien maire de Demdeng près de Bandjoun dans la région de l'ouest du Cameroun. Il devient professeur agrégé  en immunologie et hématologie en 1973. De 1984 à 1994, il est directeur de la santé puis inspecteur général au ministère de la santé publique.
+Il contribue à la découverte d'une souche du VIH1. Il est l'auteur de plusieurs ouvrages et articles scientifiques. Il est expert auprès de l'organisation mondiale de la santé depuis 1987. 
+En 1992, il a organisé la Conférence internationale sur le sida de Yaoundé et est devenu le président de l'antenne camerounaise de SidAlerte International. Il a été l'un des organisateurs de la lutte contre l'épidémie de sida au Cameroun, en lien avec les organisations internationales.
+Il est l'un des membres fondateurs de l'université des montagnes de Bangangté dans l'ouest du Cameroun. 
+Il a été dirigeant sportif et promoteur d'équipe de football. Il est propriétaire de clinique à Bastos Yaoundé au Cameroun.
+Il prend sa retraite le 31 décembre 2004.
+Il meurt le 12 avril 2021.
 </t>
         </is>
       </c>
